--- a/data sources/datasources.xlsx
+++ b/data sources/datasources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atijain/Documents/GitHub/sportsanalytics/data sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33D67DA8-A70E-D64D-B703-F01F908BFFA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEA1BA1-5046-8B40-8E5B-3813881A1351}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{D184503E-0835-F349-AB31-05CECCB6B37D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19500" xr2:uid="{D184503E-0835-F349-AB31-05CECCB6B37D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,74 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>http://football-data.co.uk/englandm.php</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>nature</t>
+  </si>
+  <si>
+    <t>excel</t>
+  </si>
+  <si>
+    <t>premier league and championshoip team and betting data</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/hugomathien/soccer</t>
+  </si>
+  <si>
+    <t>download</t>
+  </si>
+  <si>
+    <t>country league player fifa</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/artimous/complete-fifa-2017-player-dataset-global/data#FullData.csv</t>
+  </si>
+  <si>
+    <t>explore further</t>
+  </si>
+  <si>
+    <t>https://www.soccerstats.com/</t>
+  </si>
+  <si>
+    <t>scrape</t>
+  </si>
+  <si>
+    <t>all leagues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overkilling it </t>
+  </si>
+  <si>
+    <t>whoscored.com</t>
+  </si>
+  <si>
+    <t>Social media feeds explore</t>
+  </si>
+  <si>
+    <t>data to be considered 2012/13</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/thec03u5/fifa-18-demo-player-dataset</t>
+  </si>
+  <si>
+    <t>fifa player stats</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -34,13 +99,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -52,13 +161,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="4" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -371,12 +498,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DBD4F9-B5AF-2A46-A99C-DF31FC939265}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="63.33203125" customWidth="1"/>
+    <col min="2" max="2" width="79.6640625" customWidth="1"/>
+    <col min="3" max="3" width="122.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{B2477204-9FF9-CB41-85CC-E37E146934B6}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{C93310D6-753D-234C-BC78-37D02541966F}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{81E3C7AE-F375-214A-A252-2C1C573A672F}"/>
+    <hyperlink ref="B4" r:id="rId4" location="FullData.csv" xr:uid="{0BF6E38D-7A0D-FF41-BD98-D17DD4FD7961}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>